--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisiang\Desktop\blockchain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\Downloads\Blockchain-Trusted-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE798D6-A7D7-4B82-A212-FFAA9830FD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1547EA-B3C0-489B-B384-689E022253A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="7620" windowWidth="21600" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Junkiat</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -387,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -406,7 +412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -417,7 +423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -428,7 +434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -439,7 +445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -448,6 +454,17 @@
       </c>
       <c r="C5" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2000731</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
